--- a/Top 15 Types of Death in USA per 100k.xlsx
+++ b/Top 15 Types of Death in USA per 100k.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="25875" windowHeight="8775" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="25875" windowHeight="8775"/>
   </bookViews>
   <sheets>
     <sheet name="Top 15 per 100k (Crude Rates)" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,16 @@
     <sheet name="2017" sheetId="5" r:id="rId5"/>
     <sheet name="2018" sheetId="6" r:id="rId6"/>
     <sheet name="2019" sheetId="9" r:id="rId7"/>
-    <sheet name="Definitions" sheetId="7" r:id="rId8"/>
-    <sheet name="Total Deaths USA 2014-2019" sheetId="8" r:id="rId9"/>
+    <sheet name="2020" sheetId="10" r:id="rId8"/>
+    <sheet name="Definitions" sheetId="7" r:id="rId9"/>
+    <sheet name="Total Deaths USA 2014-2020" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="185">
   <si>
     <t>Year</t>
   </si>
@@ -800,14 +801,101 @@
     <t>previously published reports, due to use of the population estimates which were available at the time of release.</t>
   </si>
   <si>
-    <t>Top 15 causes of death in the USA, Crude Rates per 100,000 population (2014-2019)</t>
+    <t>#COVID-19 (U07.1)</t>
+  </si>
+  <si>
+    <t>GR113-137</t>
+  </si>
+  <si>
+    <t>Dataset: Underlying Cause of Death, 1999-2020</t>
+  </si>
+  <si>
+    <t>Year/Month: 2020</t>
+  </si>
+  <si>
+    <t>Query Date: Dec 27, 2021 12:06:26 PM</t>
+  </si>
+  <si>
+    <t>1999-2020 on CDC WONDER Online Database, released in 2021. Data are from the Multiple Cause of Death Files, 1999-2020, as</t>
+  </si>
+  <si>
+    <t>at http://wonder.cdc.gov/ucd-icd10.html on Dec 27, 2021 12:06:26 PM</t>
+  </si>
+  <si>
+    <t>2. The population figures for year 2020 are bridged-race estimates of the July 1 resident population, from the Vintage 2020</t>
+  </si>
+  <si>
+    <t>postcensal series released by NCHS on September 22, 2021. The population figures for year 2019 are bridged-race estimates of the</t>
+  </si>
+  <si>
+    <t>July 1 resident population, from the Vintage 2019 postcensal series released by NCHS on July 9, 2020. The population figures for</t>
+  </si>
+  <si>
+    <t>year 2018 are bridged-race estimates of the July 1 resident population, from the Vintage 2018 postcensal series released by NCHS</t>
+  </si>
+  <si>
+    <t>on June 25, 2019. The population figures for year 2017 are bridged-race estimates of the July 1 resident population, from the</t>
+  </si>
+  <si>
+    <t>Vintage 2017 postcensal series released by NCHS on June 27, 2018. The population figures for year 2016 are bridged-race</t>
+  </si>
+  <si>
+    <t>estimates of the July 1 resident population, from the Vintage 2016 postcensal series released by NCHS on June 26, 2017. The</t>
+  </si>
+  <si>
+    <t>population figures for year 2015 are bridged-race estimates of the July 1 resident population, from the Vintage 2015 postcensal</t>
+  </si>
+  <si>
+    <t>series released by NCHS on June 28, 2016. The population figures for year 2014 are bridged-race estimates of the July 1 resident</t>
+  </si>
+  <si>
+    <t>population, from the Vintage 2014 postcensal series released by NCHS on June 30, 2015. The population figures for year 2013 are</t>
+  </si>
+  <si>
+    <t>bridged-race estimates of the July 1 resident population, from the Vintage 2013 postcensal series released by NCHS on June 26,</t>
+  </si>
+  <si>
+    <t>2014. The population figures for year 2012 are bridged-race estimates of the July 1 resident population, from the Vintage 2012</t>
+  </si>
+  <si>
+    <t>postcensal series released by NCHS on June 13, 2013. The population figures for year 2011 are bridged-race estimates of the July</t>
+  </si>
+  <si>
+    <t>1 resident population, from the Vintage 2011 postcensal series released by NCHS on July 18, 2012. Population figures for 2010</t>
+  </si>
+  <si>
+    <t>are April 1 Census counts. The population figures for years 2001 - 2009 are bridged-race estimates of the July 1 resident</t>
+  </si>
+  <si>
+    <t>population, from the revised intercensal county-level 2000 - 2009 series released by NCHS on October 26, 2012. Population</t>
+  </si>
+  <si>
+    <t>figures for 2000 are April 1 Census counts. Population figures for 1999 are from the 1990-1999 intercensal series of July 1</t>
+  </si>
+  <si>
+    <t>estimates. Population figures for the infant age groups are the number of live births. &lt;br/&gt;&lt;b&gt;Note:&lt;/b&gt; Rates and population</t>
+  </si>
+  <si>
+    <t>figures for years 2001 - 2009 differ slightly from previously published reports, due to use of the population estimates which</t>
+  </si>
+  <si>
+    <t>were available at the time of release.</t>
+  </si>
+  <si>
+    <t>Covid-19</t>
+  </si>
+  <si>
+    <t>TOP Cause</t>
+  </si>
+  <si>
+    <t>Top 16 causes of death in the USA against Covid-19, Crude Rates per 100,000 population (2014-2020)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -824,20 +912,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -852,7 +959,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -864,10 +971,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -923,48 +1032,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Top 15 per 100k (Crude Rates)'!$A$3:$A$7</c:f>
+              <c:f>'Top 15 per 100k (Crude Rates)'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2015</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2016</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2018</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Top 15 per 100k (Crude Rates)'!$B$3:$B$7</c:f>
+              <c:f>'Top 15 per 100k (Crude Rates)'!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>192.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>197.2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>196.6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>198.8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>200.3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>200.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>211.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -990,48 +1111,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Top 15 per 100k (Crude Rates)'!$A$3:$A$7</c:f>
+              <c:f>'Top 15 per 100k (Crude Rates)'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2015</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2016</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2018</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Top 15 per 100k (Crude Rates)'!$C$3:$C$7</c:f>
+              <c:f>'Top 15 per 100k (Crude Rates)'!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>185.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>185.4</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>185.1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>183.9</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>183.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>182.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>182.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1057,48 +1190,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Top 15 per 100k (Crude Rates)'!$A$3:$A$7</c:f>
+              <c:f>'Top 15 per 100k (Crude Rates)'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2015</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2016</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2018</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Top 15 per 100k (Crude Rates)'!$D$3:$D$7</c:f>
+              <c:f>'Top 15 per 100k (Crude Rates)'!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>46.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>48.2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>47.8</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>49.2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>48.7</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>47.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1124,48 +1269,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Top 15 per 100k (Crude Rates)'!$A$3:$A$7</c:f>
+              <c:f>'Top 15 per 100k (Crude Rates)'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2015</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2016</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2018</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Top 15 per 100k (Crude Rates)'!$E$3:$E$7</c:f>
+              <c:f>'Top 15 per 100k (Crude Rates)'!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>42.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>45.6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>49.9</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>52.2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>51.1</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>52.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1191,48 +1348,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Top 15 per 100k (Crude Rates)'!$A$3:$A$7</c:f>
+              <c:f>'Top 15 per 100k (Crude Rates)'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2015</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2016</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2018</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Top 15 per 100k (Crude Rates)'!$F$3:$F$7</c:f>
+              <c:f>'Top 15 per 100k (Crude Rates)'!$F$2:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>41.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43.7</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44.9</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>45.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>45.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1258,48 +1427,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Top 15 per 100k (Crude Rates)'!$A$3:$A$7</c:f>
+              <c:f>'Top 15 per 100k (Crude Rates)'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2015</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2016</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2018</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Top 15 per 100k (Crude Rates)'!$G$3:$G$7</c:f>
+              <c:f>'Top 15 per 100k (Crude Rates)'!$G$2:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>29.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>34.4</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>35.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>37.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>37.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.700000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1325,48 +1506,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Top 15 per 100k (Crude Rates)'!$A$3:$A$7</c:f>
+              <c:f>'Top 15 per 100k (Crude Rates)'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2015</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2016</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2018</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Top 15 per 100k (Crude Rates)'!$H$3:$H$7</c:f>
+              <c:f>'Top 15 per 100k (Crude Rates)'!$H$2:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>24.7</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>24.8</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>25.7</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>26.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1392,48 +1585,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Top 15 per 100k (Crude Rates)'!$A$3:$A$7</c:f>
+              <c:f>'Top 15 per 100k (Crude Rates)'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2015</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2016</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2018</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Top 15 per 100k (Crude Rates)'!$I$3:$I$7</c:f>
+              <c:f>'Top 15 per 100k (Crude Rates)'!$I$2:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>17.8</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>15.9</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>17.100000000000001</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>18.100000000000001</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1459,36 +1664,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Top 15 per 100k (Crude Rates)'!$A$3:$A$7</c:f>
+              <c:f>'Top 15 per 100k (Crude Rates)'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2015</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2016</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2018</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Top 15 per 100k (Crude Rates)'!$J$3:$J$7</c:f>
+              <c:f>'Top 15 per 100k (Crude Rates)'!$J$2:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>15.5</c:v>
+                  <c:v>15.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>15.5</c:v>
@@ -1497,10 +1708,16 @@
                   <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.7</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1526,48 +1743,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Top 15 per 100k (Crude Rates)'!$A$3:$A$7</c:f>
+              <c:f>'Top 15 per 100k (Crude Rates)'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2015</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2016</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2018</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Top 15 per 100k (Crude Rates)'!$K$3:$K$7</c:f>
+              <c:f>'Top 15 per 100k (Crude Rates)'!$K$2:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>13.7</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>13.9</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>14.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>14.8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1593,48 +1822,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Top 15 per 100k (Crude Rates)'!$A$3:$A$7</c:f>
+              <c:f>'Top 15 per 100k (Crude Rates)'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2015</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2016</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2018</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Top 15 per 100k (Crude Rates)'!$L$3:$L$7</c:f>
+              <c:f>'Top 15 per 100k (Crude Rates)'!$L$2:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>12.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>12.4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1660,48 +1901,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Top 15 per 100k (Crude Rates)'!$A$3:$A$7</c:f>
+              <c:f>'Top 15 per 100k (Crude Rates)'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2015</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2016</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2018</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Top 15 per 100k (Crude Rates)'!$M$3:$M$7</c:f>
+              <c:f>'Top 15 per 100k (Crude Rates)'!$M$2:$M$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>12.5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>12.8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>13.1</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1727,48 +1980,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Top 15 per 100k (Crude Rates)'!$A$3:$A$7</c:f>
+              <c:f>'Top 15 per 100k (Crude Rates)'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2015</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2016</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2018</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Top 15 per 100k (Crude Rates)'!$N$3:$N$7</c:f>
+              <c:f>'Top 15 per 100k (Crude Rates)'!$N$2:$N$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10.3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>10.8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1794,48 +2059,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Top 15 per 100k (Crude Rates)'!$A$3:$A$7</c:f>
+              <c:f>'Top 15 per 100k (Crude Rates)'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2015</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2016</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2018</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Top 15 per 100k (Crude Rates)'!$O$3:$O$7</c:f>
+              <c:f>'Top 15 per 100k (Crude Rates)'!$O$2:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>8.6999999999999993</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>9.1999999999999993</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>9.8000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>10.3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1861,48 +2138,139 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Top 15 per 100k (Crude Rates)'!$A$3:$A$7</c:f>
+              <c:f>'Top 15 per 100k (Crude Rates)'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2015</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2016</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2018</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Top 15 per 100k (Crude Rates)'!$P$3:$P$7</c:f>
+              <c:f>'Top 15 per 100k (Crude Rates)'!$P$2:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6.2</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Top 15 per 100k (Crude Rates)'!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Covid-19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Top 15 per 100k (Crude Rates)'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.1</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.9</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8</c:v>
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Top 15 per 100k (Crude Rates)'!$Q$2:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>106.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1919,11 +2287,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="224879104"/>
-        <c:axId val="196064896"/>
+        <c:axId val="46462464"/>
+        <c:axId val="168244288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="224879104"/>
+        <c:axId val="46462464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1933,7 +2301,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196064896"/>
+        <c:crossAx val="168244288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1941,7 +2309,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196064896"/>
+        <c:axId val="168244288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1952,7 +2320,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="224879104"/>
+        <c:crossAx val="46462464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1979,19 +2347,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2296,85 +2664,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" customWidth="1"/>
     <col min="21" max="21" width="3.42578125" customWidth="1"/>
-    <col min="22" max="22" width="24.28515625" customWidth="1"/>
+    <col min="22" max="22" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -2423,8 +2793,11 @@
       <c r="P2">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -2473,8 +2846,11 @@
       <c r="P3">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -2523,8 +2899,11 @@
       <c r="P4">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -2573,8 +2952,11 @@
       <c r="P5">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -2623,8 +3005,11 @@
       <c r="P6">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -2673,33 +3058,230 @@
       <c r="P7">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2020</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="B8">
+        <v>211.5</v>
+      </c>
+      <c r="C8">
+        <v>182.8</v>
+      </c>
+      <c r="D8">
+        <v>46.3</v>
+      </c>
+      <c r="E8">
+        <v>61</v>
+      </c>
+      <c r="F8">
+        <v>48.6</v>
+      </c>
+      <c r="G8">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="H8">
+        <v>31</v>
+      </c>
+      <c r="I8">
+        <v>16.3</v>
+      </c>
+      <c r="J8">
+        <v>15.9</v>
+      </c>
+      <c r="K8">
+        <v>14</v>
+      </c>
+      <c r="L8">
+        <v>12.2</v>
+      </c>
+      <c r="M8">
+        <v>15.7</v>
+      </c>
+      <c r="N8">
+        <v>12.7</v>
+      </c>
+      <c r="O8">
+        <v>12.2</v>
+      </c>
+      <c r="P8" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="Q8">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="C11:M11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2014</v>
+      </c>
+      <c r="B2" s="3">
+        <v>318400000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2626418</v>
+      </c>
+      <c r="D2">
+        <f>(C2/B2)</f>
+        <v>8.248800251256282E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2015</v>
+      </c>
+      <c r="B3" s="3">
+        <v>320700000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2712630</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="0">(C3/B3)</f>
+        <v>8.4584658559401314E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2016</v>
+      </c>
+      <c r="B4" s="3">
+        <v>323100000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2744248</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>8.493494274218508E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="3">
+        <v>325100000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2813503</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>8.6542694555521386E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2018</v>
+      </c>
+      <c r="B6" s="3">
+        <v>327200000</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2839205</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>8.6772768948655248E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2019</v>
+      </c>
+      <c r="B7" s="3">
+        <v>328239523</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2854838</v>
+      </c>
+      <c r="D7">
+        <f>(C7/B7)</f>
+        <v>8.697423070530114E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="3">
+        <v>329484123</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2726402</v>
+      </c>
+      <c r="D8">
+        <f>(C8/B8)</f>
+        <v>8.2747598736343363E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5434,7 +6016,7 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5983,10 +6565,572 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="118.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2">
+        <v>696962</v>
+      </c>
+      <c r="E2">
+        <v>329484123</v>
+      </c>
+      <c r="F2">
+        <v>211.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>602350</v>
+      </c>
+      <c r="E3">
+        <v>329484123</v>
+      </c>
+      <c r="F3">
+        <v>182.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4">
+        <v>350831</v>
+      </c>
+      <c r="E4">
+        <v>329484123</v>
+      </c>
+      <c r="F4">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>200955</v>
+      </c>
+      <c r="E5">
+        <v>329484123</v>
+      </c>
+      <c r="F5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>160264</v>
+      </c>
+      <c r="E6">
+        <v>329484123</v>
+      </c>
+      <c r="F6">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>152657</v>
+      </c>
+      <c r="E7">
+        <v>329484123</v>
+      </c>
+      <c r="F7">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>134242</v>
+      </c>
+      <c r="E8">
+        <v>329484123</v>
+      </c>
+      <c r="F8">
+        <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>102188</v>
+      </c>
+      <c r="E9">
+        <v>329484123</v>
+      </c>
+      <c r="F9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10">
+        <v>53544</v>
+      </c>
+      <c r="E10">
+        <v>329484123</v>
+      </c>
+      <c r="F10">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11">
+        <v>52547</v>
+      </c>
+      <c r="E11">
+        <v>329484123</v>
+      </c>
+      <c r="F11">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12">
+        <v>51642</v>
+      </c>
+      <c r="E12">
+        <v>329484123</v>
+      </c>
+      <c r="F12">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13">
+        <v>45979</v>
+      </c>
+      <c r="E13">
+        <v>329484123</v>
+      </c>
+      <c r="F13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14">
+        <v>41907</v>
+      </c>
+      <c r="E14">
+        <v>329484123</v>
+      </c>
+      <c r="F14">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15">
+        <v>40284</v>
+      </c>
+      <c r="E15">
+        <v>329484123</v>
+      </c>
+      <c r="F15">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16">
+        <v>40050</v>
+      </c>
+      <c r="E16">
+        <v>329484123</v>
+      </c>
+      <c r="F16">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6089,130 +7233,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2014</v>
-      </c>
-      <c r="B2" s="3">
-        <v>318400000</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2626418</v>
-      </c>
-      <c r="D2">
-        <f>(C2/B2)</f>
-        <v>8.248800251256282E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2015</v>
-      </c>
-      <c r="B3" s="3">
-        <v>320700000</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2712630</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D7" si="0">(C3/B3)</f>
-        <v>8.4584658559401314E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2016</v>
-      </c>
-      <c r="B4" s="3">
-        <v>323100000</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2744248</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>8.493494274218508E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2017</v>
-      </c>
-      <c r="B5" s="3">
-        <v>325100000</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2813503</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>8.6542694555521386E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2018</v>
-      </c>
-      <c r="B6" s="3">
-        <v>327200000</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2839205</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>8.6772768948655248E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3019</v>
-      </c>
-      <c r="B7" s="3">
-        <v>328239523</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2854838</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>8.697423070530114E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>